--- a/biology/Médecine/Maladie_génétique_du_métabolisme_des_métaux/Maladie_génétique_du_métabolisme_des_métaux.xlsx
+++ b/biology/Médecine/Maladie_génétique_du_métabolisme_des_métaux/Maladie_génétique_du_métabolisme_des_métaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maladie_g%C3%A9n%C3%A9tique_du_m%C3%A9tabolisme_des_m%C3%A9taux</t>
+          <t>Maladie_génétique_du_métabolisme_des_métaux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les maladies génétiques du métabolisme des métaux sont les maladies en rapport avec une anomalie du métabolisme des métaux d’origine génétique.
-Le fer et le cuivre sont les deux principaux métaux impliqués en pathologie, mais il peut aussi s'agir de maladies concernant le magnésium, le sélénium, le manganèse ou encore le zinc[1].
+Le fer et le cuivre sont les deux principaux métaux impliqués en pathologie, mais il peut aussi s'agir de maladies concernant le magnésium, le sélénium, le manganèse ou encore le zinc.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maladie_g%C3%A9n%C3%A9tique_du_m%C3%A9tabolisme_des_m%C3%A9taux</t>
+          <t>Maladie_génétique_du_métabolisme_des_métaux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maladie_g%C3%A9n%C3%A9tique_du_m%C3%A9tabolisme_des_m%C3%A9taux</t>
+          <t>Maladie_génétique_du_métabolisme_des_métaux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,11 +552,13 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(fr) Site français sur les maladies rares
 (en) Site sur la biochimie
-(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD.[5]
+(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD.
 ↑ (en) Jean-Marie Saudubray, Matthias R. Baumgartner et John H. Walter, Inborn Metabolic Diseases: Diagnosis and Treatment, Springer-Verlag Berlin and Heidelberg GmbH &amp; Co. K, 28 octobre 2016, 658 p. (ISBN 9783662497692)
  Portail de la médecine                     </t>
         </is>
